--- a/homework/hw3/Requirement List.xlsx
+++ b/homework/hw3/Requirement List.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\myFMI\3rd year\sem2\SRA\homework\hw3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C3BB7FE7-F75C-43D6-862A-22437DF6F82B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3351DBBC-3F8C-4FA3-8597-0E8039269A18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requirements" sheetId="1" r:id="rId1"/>
+    <sheet name="Matrix" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Requirements!$B$4:$G$37</definedName>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="145">
   <si>
     <t>ID</t>
   </si>
@@ -360,12 +361,120 @@
 Системата трябва да използва утвърдени стандарти за достъп до данните за изграждане на логиката и потребителския интерфейс.
 Системата трябва да включва мерки за сигурност на данните, които не разрешават пряк неконтролиран от системата достъп на потребител до тях и последващото им копиране и разрушаване на тяхната цялост.</t>
   </si>
+  <si>
+    <t>←</t>
+  </si>
+  <si>
+    <t>→</t>
+  </si>
+  <si>
+    <t>REQ-31 Сигурност</t>
+  </si>
+  <si>
+    <t>REQ-30 Надеждност</t>
+  </si>
+  <si>
+    <t>REQ-29 Производителност</t>
+  </si>
+  <si>
+    <t>REQ-28 Безопасност</t>
+  </si>
+  <si>
+    <t>REQ-27 Интеграция със EasyPay, PayPal и банки.</t>
+  </si>
+  <si>
+    <t>REQ-26 Известяване за наближаващ ангажимент</t>
+  </si>
+  <si>
+    <t>REQ-25 Интеграция с Google Maps</t>
+  </si>
+  <si>
+    <t>REQ-24 Бележки за клиентите</t>
+  </si>
+  <si>
+    <t>REQ-23 Списък с всички записани клиенти</t>
+  </si>
+  <si>
+    <t>REQ-22 Заключване на ангажименти като повтарящи се</t>
+  </si>
+  <si>
+    <t>REQ-21 Бележки към ангажиментите</t>
+  </si>
+  <si>
+    <t>REQ-20 Верификация при редактиране на час</t>
+  </si>
+  <si>
+    <t>REQ-19 Редакция на собствения график</t>
+  </si>
+  <si>
+    <t>REQ-18 Редакция на графика за клиенти</t>
+  </si>
+  <si>
+    <t>REQ-17 Одобрение на час</t>
+  </si>
+  <si>
+    <t>REQ-16 Заявка на час</t>
+  </si>
+  <si>
+    <t>REQ-15 График за клиентите на потребителите изпълнители</t>
+  </si>
+  <si>
+    <t>REQ-14 График за всеки потребител</t>
+  </si>
+  <si>
+    <t>REQ-13 Сортирофка по критерии</t>
+  </si>
+  <si>
+    <t>REQ-12 Препращане при избиране на услуга</t>
+  </si>
+  <si>
+    <t>REQ-11 Визуализация на намерените услуги в списък</t>
+  </si>
+  <si>
+    <t>REQ-10 Филтриране на търсенето</t>
+  </si>
+  <si>
+    <t>REQ-9 Търсене на услуги</t>
+  </si>
+  <si>
+    <t>REQ-8 Абониране към платформата</t>
+  </si>
+  <si>
+    <t>REQ-7 Промяна на основна информация на профила</t>
+  </si>
+  <si>
+    <t>REQ-6 Промяна на паролата</t>
+  </si>
+  <si>
+    <t>REQ-5 Излизане от профила</t>
+  </si>
+  <si>
+    <t>REQ-4 Възстановяване на парола</t>
+  </si>
+  <si>
+    <t>REQ-3 Двустъпкова автентикация</t>
+  </si>
+  <si>
+    <t>REQ-2 Вход в профила</t>
+  </si>
+  <si>
+    <t>REQ-1.2 Регистрация като изпълнител на услуги</t>
+  </si>
+  <si>
+    <t>REQ-1.1 Регистрация като обикновен потребител</t>
+  </si>
+  <si>
+    <t>REQ-1 Регистрация</t>
+  </si>
+  <si>
+    <t>Requirements and Referenced Requirements</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -411,8 +520,53 @@
       <name val="Tw Cen MT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Tw Cen MT"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -437,8 +591,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -446,12 +606,38 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -471,12 +657,1319 @@
     <xf numFmtId="14" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment textRotation="60"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{0127DAFD-C414-4C3D-ACA4-83E65BE25661}"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="175">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-4.9989318521683403E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -639,16 +2132,138 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2228851</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>581025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5B10622-9B40-4CD2-A380-AB7882FDB526}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="495300" y="476250"/>
+          <a:ext cx="247651" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Key</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>→:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> row item has a reference to column item</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>←: row item is referenced by column item</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:G37" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="B4:G37" totalsRowShown="0" headerRowDxfId="174" dataDxfId="173">
   <autoFilter ref="B4:G37" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priority" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Package" dataDxfId="1"/>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Description" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID" dataDxfId="172"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Name" dataDxfId="171"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Priority" dataDxfId="170"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Type" dataDxfId="169"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Package" dataDxfId="168"/>
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Description" dataDxfId="167"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -977,7 +2592,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
@@ -1731,4 +3346,2874 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA6B330-9894-4D72-964C-C04F25395A4B}">
+  <dimension ref="A1:AJ38"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4:AJ37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="1.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.7109375" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="3.7109375" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:36" s="26" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+    </row>
+    <row r="2" spans="1:36" s="20" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="24"/>
+      <c r="D2" s="23">
+        <v>44691.860219907408</v>
+      </c>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="21"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+    </row>
+    <row r="3" spans="1:36" s="17" customFormat="1" ht="20.25" x14ac:dyDescent="0.2">
+      <c r="B3" s="19"/>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:36" ht="233.25" x14ac:dyDescent="0.2">
+      <c r="D4" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="O4" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="P4" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q4" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="S4" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="T4" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="U4" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="V4" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="W4" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="X4" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y4" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="Z4" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="AA4" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="AB4" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC4" s="16" t="s">
+        <v>118</v>
+      </c>
+      <c r="AD4" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="AE4" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="AF4" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="AG4" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH4" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI4" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ4" s="16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B5" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" s="13"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+      <c r="AC5" s="13"/>
+      <c r="AD5" s="13"/>
+      <c r="AE5" s="13"/>
+      <c r="AF5" s="13"/>
+      <c r="AG5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI5" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ5" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B6" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" s="13"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
+      <c r="AC6" s="13"/>
+      <c r="AD6" s="13"/>
+      <c r="AE6" s="13"/>
+      <c r="AF6" s="13"/>
+      <c r="AG6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI6" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ6" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="13"/>
+      <c r="W7" s="13"/>
+      <c r="X7" s="13"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
+      <c r="AA7" s="13"/>
+      <c r="AB7" s="13"/>
+      <c r="AC7" s="13"/>
+      <c r="AD7" s="13"/>
+      <c r="AE7" s="13"/>
+      <c r="AF7" s="13"/>
+      <c r="AG7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI7" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ7" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B8" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="O8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="R8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="S8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="T8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="U8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="V8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Y8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD8" s="13"/>
+      <c r="AE8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF8" s="13"/>
+      <c r="AG8" s="13"/>
+      <c r="AH8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI8" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ8" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" s="13"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="U9" s="13"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="13"/>
+      <c r="AA9" s="13"/>
+      <c r="AB9" s="13"/>
+      <c r="AC9" s="13"/>
+      <c r="AD9" s="13"/>
+      <c r="AE9" s="13"/>
+      <c r="AF9" s="13"/>
+      <c r="AG9" s="13"/>
+      <c r="AH9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI9" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ9" s="13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" s="13"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="13"/>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="13"/>
+      <c r="V10" s="13"/>
+      <c r="W10" s="13"/>
+      <c r="X10" s="13"/>
+      <c r="Y10" s="13"/>
+      <c r="Z10" s="13"/>
+      <c r="AA10" s="13"/>
+      <c r="AB10" s="13"/>
+      <c r="AC10" s="13"/>
+      <c r="AD10" s="13"/>
+      <c r="AE10" s="13"/>
+      <c r="AF10" s="13"/>
+      <c r="AG10" s="13"/>
+      <c r="AH10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI10" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ10" s="13"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" s="13"/>
+      <c r="Q11" s="13"/>
+      <c r="R11" s="13"/>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="U11" s="13"/>
+      <c r="V11" s="13"/>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="13"/>
+      <c r="Z11" s="13"/>
+      <c r="AA11" s="13"/>
+      <c r="AB11" s="13"/>
+      <c r="AC11" s="13"/>
+      <c r="AD11" s="13"/>
+      <c r="AE11" s="13"/>
+      <c r="AF11" s="13"/>
+      <c r="AG11" s="13"/>
+      <c r="AH11" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI11" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ11" s="13"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="13"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13"/>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" s="13"/>
+      <c r="Q12" s="13"/>
+      <c r="R12" s="13"/>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+      <c r="W12" s="13"/>
+      <c r="X12" s="13"/>
+      <c r="Y12" s="13"/>
+      <c r="Z12" s="13"/>
+      <c r="AA12" s="13"/>
+      <c r="AB12" s="13"/>
+      <c r="AC12" s="13"/>
+      <c r="AD12" s="13"/>
+      <c r="AE12" s="13"/>
+      <c r="AF12" s="13"/>
+      <c r="AG12" s="13"/>
+      <c r="AH12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI12" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ12" s="13"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" s="13"/>
+      <c r="Q13" s="13"/>
+      <c r="R13" s="13"/>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="U13" s="13"/>
+      <c r="V13" s="13"/>
+      <c r="W13" s="13"/>
+      <c r="X13" s="13"/>
+      <c r="Y13" s="13"/>
+      <c r="Z13" s="13"/>
+      <c r="AA13" s="13"/>
+      <c r="AB13" s="13"/>
+      <c r="AC13" s="13"/>
+      <c r="AD13" s="13"/>
+      <c r="AE13" s="13"/>
+      <c r="AF13" s="13"/>
+      <c r="AG13" s="13"/>
+      <c r="AH13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI13" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ13" s="13"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B14" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" s="13"/>
+      <c r="Q14" s="13"/>
+      <c r="R14" s="13"/>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z14" s="13"/>
+      <c r="AA14" s="13"/>
+      <c r="AB14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AD14" s="13"/>
+      <c r="AE14" s="13"/>
+      <c r="AF14" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG14" s="13"/>
+      <c r="AH14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ14" s="13"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B15" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="P15" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="13"/>
+      <c r="V15" s="13"/>
+      <c r="W15" s="13"/>
+      <c r="X15" s="13"/>
+      <c r="Y15" s="13"/>
+      <c r="Z15" s="13"/>
+      <c r="AA15" s="13"/>
+      <c r="AB15" s="13"/>
+      <c r="AC15" s="13"/>
+      <c r="AD15" s="13"/>
+      <c r="AE15" s="13"/>
+      <c r="AF15" s="13"/>
+      <c r="AG15" s="13"/>
+      <c r="AH15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI15" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ15" s="13"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.2">
+      <c r="B16" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="13"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O16" s="13"/>
+      <c r="P16" s="13"/>
+      <c r="Q16" s="13"/>
+      <c r="R16" s="13"/>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+      <c r="W16" s="13"/>
+      <c r="X16" s="13"/>
+      <c r="Y16" s="13"/>
+      <c r="Z16" s="13"/>
+      <c r="AA16" s="13"/>
+      <c r="AB16" s="13"/>
+      <c r="AC16" s="13"/>
+      <c r="AD16" s="13"/>
+      <c r="AE16" s="13"/>
+      <c r="AF16" s="13"/>
+      <c r="AG16" s="13"/>
+      <c r="AH16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI16" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ16" s="13"/>
+    </row>
+    <row r="17" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B17" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" s="13"/>
+      <c r="Q17" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="R17" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="U17" s="13"/>
+      <c r="V17" s="13"/>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="13"/>
+      <c r="Z17" s="13"/>
+      <c r="AA17" s="13"/>
+      <c r="AB17" s="13"/>
+      <c r="AC17" s="13"/>
+      <c r="AD17" s="13"/>
+      <c r="AE17" s="13"/>
+      <c r="AF17" s="13"/>
+      <c r="AG17" s="13"/>
+      <c r="AH17" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI17" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ17" s="13"/>
+    </row>
+    <row r="18" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B18" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13"/>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
+      <c r="P18" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q18" s="13"/>
+      <c r="R18" s="13"/>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+      <c r="W18" s="13"/>
+      <c r="X18" s="13"/>
+      <c r="Y18" s="13"/>
+      <c r="Z18" s="13"/>
+      <c r="AA18" s="13"/>
+      <c r="AB18" s="13"/>
+      <c r="AC18" s="13"/>
+      <c r="AD18" s="13"/>
+      <c r="AE18" s="13"/>
+      <c r="AF18" s="13"/>
+      <c r="AG18" s="13"/>
+      <c r="AH18" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI18" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ18" s="13"/>
+    </row>
+    <row r="19" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B19" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13"/>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q19" s="13"/>
+      <c r="R19" s="13"/>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="U19" s="13"/>
+      <c r="V19" s="13"/>
+      <c r="W19" s="13"/>
+      <c r="X19" s="13"/>
+      <c r="Y19" s="13"/>
+      <c r="Z19" s="13"/>
+      <c r="AA19" s="13"/>
+      <c r="AB19" s="13"/>
+      <c r="AC19" s="13"/>
+      <c r="AD19" s="13"/>
+      <c r="AE19" s="13"/>
+      <c r="AF19" s="13"/>
+      <c r="AG19" s="13"/>
+      <c r="AH19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ19" s="13"/>
+    </row>
+    <row r="20" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B20" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="13"/>
+      <c r="E20" s="13"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" s="13"/>
+      <c r="Q20" s="13"/>
+      <c r="R20" s="13"/>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z20" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA20" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB20" s="13"/>
+      <c r="AC20" s="13"/>
+      <c r="AD20" s="13"/>
+      <c r="AE20" s="13"/>
+      <c r="AF20" s="13"/>
+      <c r="AG20" s="13"/>
+      <c r="AH20" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI20" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ20" s="13"/>
+    </row>
+    <row r="21" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" s="13"/>
+      <c r="Q21" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="U21" s="13"/>
+      <c r="V21" s="13"/>
+      <c r="W21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="X21" s="13"/>
+      <c r="Y21" s="13"/>
+      <c r="Z21" s="13"/>
+      <c r="AA21" s="13"/>
+      <c r="AB21" s="13"/>
+      <c r="AC21" s="13"/>
+      <c r="AD21" s="13"/>
+      <c r="AE21" s="13"/>
+      <c r="AF21" s="13"/>
+      <c r="AG21" s="13"/>
+      <c r="AH21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI21" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ21" s="13"/>
+    </row>
+    <row r="22" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B22" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="13"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" s="13"/>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="W22" s="13"/>
+      <c r="X22" s="13"/>
+      <c r="Y22" s="13"/>
+      <c r="Z22" s="13"/>
+      <c r="AA22" s="13"/>
+      <c r="AB22" s="13"/>
+      <c r="AC22" s="13"/>
+      <c r="AD22" s="13"/>
+      <c r="AE22" s="13"/>
+      <c r="AF22" s="13"/>
+      <c r="AG22" s="13"/>
+      <c r="AH22" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI22" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ22" s="13"/>
+    </row>
+    <row r="23" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B23" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
+      <c r="AA23" s="13"/>
+      <c r="AB23" s="13"/>
+      <c r="AC23" s="13"/>
+      <c r="AD23" s="13"/>
+      <c r="AE23" s="13"/>
+      <c r="AF23" s="13"/>
+      <c r="AG23" s="13"/>
+      <c r="AH23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI23" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ23" s="13"/>
+    </row>
+    <row r="24" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B24" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="U24" s="13"/>
+      <c r="V24" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="W24" s="13"/>
+      <c r="X24" s="13"/>
+      <c r="Y24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z24" s="13"/>
+      <c r="AA24" s="13"/>
+      <c r="AB24" s="13"/>
+      <c r="AC24" s="13"/>
+      <c r="AD24" s="13"/>
+      <c r="AE24" s="13"/>
+      <c r="AF24" s="13"/>
+      <c r="AG24" s="13"/>
+      <c r="AH24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI24" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ24" s="13"/>
+    </row>
+    <row r="25" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B25" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="13"/>
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="G25" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="U25" s="13"/>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB25" s="13"/>
+      <c r="AC25" s="13"/>
+      <c r="AD25" s="13"/>
+      <c r="AE25" s="13"/>
+      <c r="AF25" s="13"/>
+      <c r="AG25" s="13"/>
+      <c r="AH25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI25" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ25" s="13"/>
+    </row>
+    <row r="26" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B26" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N26" s="13"/>
+      <c r="O26" s="13"/>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="T26" s="13"/>
+      <c r="U26" s="13"/>
+      <c r="V26" s="13"/>
+      <c r="W26" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="X26" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y26" s="13"/>
+      <c r="Z26" s="13"/>
+      <c r="AA26" s="13"/>
+      <c r="AB26" s="13"/>
+      <c r="AC26" s="13"/>
+      <c r="AD26" s="13"/>
+      <c r="AE26" s="13"/>
+      <c r="AF26" s="13"/>
+      <c r="AG26" s="13"/>
+      <c r="AH26" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI26" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ26" s="13"/>
+    </row>
+    <row r="27" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B27" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="13"/>
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="13"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13"/>
+      <c r="O27" s="13"/>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="T27" s="13"/>
+      <c r="U27" s="13"/>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
+      <c r="AA27" s="13"/>
+      <c r="AB27" s="13"/>
+      <c r="AC27" s="13"/>
+      <c r="AD27" s="13"/>
+      <c r="AE27" s="13"/>
+      <c r="AF27" s="13"/>
+      <c r="AG27" s="13"/>
+      <c r="AH27" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI27" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ27" s="13"/>
+    </row>
+    <row r="28" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B28" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="T28" s="13"/>
+      <c r="U28" s="13"/>
+      <c r="V28" s="13"/>
+      <c r="W28" s="13"/>
+      <c r="X28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y28" s="13"/>
+      <c r="Z28" s="13"/>
+      <c r="AA28" s="13"/>
+      <c r="AB28" s="13"/>
+      <c r="AC28" s="13"/>
+      <c r="AD28" s="13"/>
+      <c r="AE28" s="13"/>
+      <c r="AF28" s="13"/>
+      <c r="AG28" s="13"/>
+      <c r="AH28" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI28" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ28" s="13"/>
+    </row>
+    <row r="29" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B29" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="U29" s="13"/>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
+      <c r="AA29" s="13"/>
+      <c r="AB29" s="13"/>
+      <c r="AC29" s="13"/>
+      <c r="AD29" s="13"/>
+      <c r="AE29" s="13"/>
+      <c r="AF29" s="13"/>
+      <c r="AG29" s="13"/>
+      <c r="AH29" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI29" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ29" s="13"/>
+    </row>
+    <row r="30" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B30" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="G30" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="U30" s="13"/>
+      <c r="V30" s="13"/>
+      <c r="W30" s="13"/>
+      <c r="X30" s="13"/>
+      <c r="Y30" s="13"/>
+      <c r="Z30" s="13"/>
+      <c r="AA30" s="13"/>
+      <c r="AB30" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC30" s="13"/>
+      <c r="AD30" s="13"/>
+      <c r="AE30" s="13"/>
+      <c r="AF30" s="13"/>
+      <c r="AG30" s="13"/>
+      <c r="AH30" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI30" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ30" s="13"/>
+    </row>
+    <row r="31" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B31" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="13"/>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="U31" s="13"/>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
+      <c r="AA31" s="13"/>
+      <c r="AB31" s="13"/>
+      <c r="AC31" s="13"/>
+      <c r="AD31" s="13"/>
+      <c r="AE31" s="13"/>
+      <c r="AF31" s="13"/>
+      <c r="AG31" s="13"/>
+      <c r="AH31" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI31" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ31" s="13"/>
+    </row>
+    <row r="32" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B32" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="13"/>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="T32" s="13"/>
+      <c r="U32" s="13"/>
+      <c r="V32" s="13"/>
+      <c r="W32" s="13"/>
+      <c r="X32" s="13"/>
+      <c r="Y32" s="13"/>
+      <c r="Z32" s="13"/>
+      <c r="AA32" s="13"/>
+      <c r="AB32" s="13"/>
+      <c r="AC32" s="13"/>
+      <c r="AD32" s="13"/>
+      <c r="AE32" s="13"/>
+      <c r="AF32" s="13"/>
+      <c r="AG32" s="13"/>
+      <c r="AH32" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI32" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="AJ32" s="13"/>
+    </row>
+    <row r="33" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B33" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
+      <c r="AA33" s="13"/>
+      <c r="AB33" s="13"/>
+      <c r="AC33" s="13"/>
+      <c r="AD33" s="13"/>
+      <c r="AE33" s="13"/>
+      <c r="AF33" s="13"/>
+      <c r="AG33" s="13"/>
+      <c r="AH33" s="13"/>
+      <c r="AI33" s="13"/>
+      <c r="AJ33" s="13"/>
+    </row>
+    <row r="34" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B34" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="13"/>
+      <c r="W34" s="13"/>
+      <c r="X34" s="13"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
+      <c r="AA34" s="13"/>
+      <c r="AB34" s="13"/>
+      <c r="AC34" s="13"/>
+      <c r="AD34" s="13"/>
+      <c r="AE34" s="13"/>
+      <c r="AF34" s="13"/>
+      <c r="AG34" s="13"/>
+      <c r="AH34" s="13"/>
+      <c r="AI34" s="13"/>
+      <c r="AJ34" s="13"/>
+    </row>
+    <row r="35" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B35" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="R35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="S35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="T35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="U35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="V35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="W35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="X35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE35" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF35" s="13"/>
+      <c r="AG35" s="13"/>
+      <c r="AH35" s="13"/>
+      <c r="AI35" s="13"/>
+      <c r="AJ35" s="13"/>
+    </row>
+    <row r="36" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B36" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="M36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="P36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="R36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="S36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="T36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="U36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="V36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="W36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="X36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AA36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AB36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE36" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF36" s="13"/>
+      <c r="AG36" s="13"/>
+      <c r="AH36" s="13"/>
+      <c r="AI36" s="13"/>
+      <c r="AJ36" s="13"/>
+    </row>
+    <row r="37" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="B37" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13"/>
+      <c r="O37" s="13"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="U37" s="13"/>
+      <c r="V37" s="13"/>
+      <c r="W37" s="13"/>
+      <c r="X37" s="13"/>
+      <c r="Y37" s="13"/>
+      <c r="Z37" s="13"/>
+      <c r="AA37" s="13"/>
+      <c r="AB37" s="13"/>
+      <c r="AC37" s="13"/>
+      <c r="AD37" s="13"/>
+      <c r="AE37" s="13"/>
+      <c r="AF37" s="13"/>
+      <c r="AG37" s="13"/>
+      <c r="AH37" s="13"/>
+      <c r="AI37" s="13"/>
+      <c r="AJ37" s="13"/>
+    </row>
+    <row r="38" spans="2:36" x14ac:dyDescent="0.2">
+      <c r="D38" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D2:H2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="D4">
+    <cfRule type="expression" dxfId="166" priority="167">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E4">
+    <cfRule type="expression" dxfId="165" priority="166">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F4">
+    <cfRule type="expression" dxfId="164" priority="165">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="expression" dxfId="163" priority="164">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H4">
+    <cfRule type="expression" dxfId="162" priority="163">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I4">
+    <cfRule type="expression" dxfId="161" priority="162">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J4">
+    <cfRule type="expression" dxfId="160" priority="161">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K4">
+    <cfRule type="expression" dxfId="159" priority="160">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L4">
+    <cfRule type="expression" dxfId="158" priority="159">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M4">
+    <cfRule type="expression" dxfId="157" priority="158">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="expression" dxfId="156" priority="157">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4">
+    <cfRule type="expression" dxfId="155" priority="156">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P4">
+    <cfRule type="expression" dxfId="154" priority="155">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q4">
+    <cfRule type="expression" dxfId="153" priority="154">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R4">
+    <cfRule type="expression" dxfId="152" priority="153">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S4">
+    <cfRule type="expression" dxfId="151" priority="152">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T4">
+    <cfRule type="expression" dxfId="150" priority="151">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U4">
+    <cfRule type="expression" dxfId="149" priority="150">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V4">
+    <cfRule type="expression" dxfId="148" priority="149">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W4">
+    <cfRule type="expression" dxfId="147" priority="148">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4">
+    <cfRule type="expression" dxfId="146" priority="147">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4">
+    <cfRule type="expression" dxfId="145" priority="146">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z4">
+    <cfRule type="expression" dxfId="144" priority="145">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA4">
+    <cfRule type="expression" dxfId="143" priority="144">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB4">
+    <cfRule type="expression" dxfId="142" priority="143">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC4">
+    <cfRule type="expression" dxfId="141" priority="142">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD4">
+    <cfRule type="expression" dxfId="140" priority="141">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE4">
+    <cfRule type="expression" dxfId="139" priority="140">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF4">
+    <cfRule type="expression" dxfId="138" priority="139">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG4">
+    <cfRule type="expression" dxfId="137" priority="138">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AH4">
+    <cfRule type="expression" dxfId="136" priority="137">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI4">
+    <cfRule type="expression" dxfId="135" priority="136">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ4">
+    <cfRule type="expression" dxfId="134" priority="135">
+      <formula>AND(COLUMN()&gt;2,MOD(COLUMN(),2)=0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:C5">
+    <cfRule type="expression" dxfId="133" priority="134">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AI6:AI32 D5:AI5 AG6:AG7">
+    <cfRule type="expression" dxfId="132" priority="133">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:C6">
+    <cfRule type="expression" dxfId="131" priority="132">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:AI6 AI29">
+    <cfRule type="expression" dxfId="130" priority="131">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:C7">
+    <cfRule type="expression" dxfId="129" priority="130">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:AI7 AH8:AH32 AI30">
+    <cfRule type="expression" dxfId="128" priority="129">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="expression" dxfId="127" priority="128">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D8:AI8 AI31">
+    <cfRule type="expression" dxfId="126" priority="127">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:C9">
+    <cfRule type="expression" dxfId="125" priority="126">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:AI9 AI32">
+    <cfRule type="expression" dxfId="124" priority="125">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:C10">
+    <cfRule type="expression" dxfId="123" priority="124">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:AJ10">
+    <cfRule type="expression" dxfId="122" priority="123">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11">
+    <cfRule type="expression" dxfId="121" priority="122">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:AJ11">
+    <cfRule type="expression" dxfId="120" priority="121">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B12:C12">
+    <cfRule type="expression" dxfId="119" priority="120">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:AJ12">
+    <cfRule type="expression" dxfId="118" priority="119">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:C13">
+    <cfRule type="expression" dxfId="117" priority="118">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:AJ13">
+    <cfRule type="expression" dxfId="116" priority="117">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:C14">
+    <cfRule type="expression" dxfId="115" priority="116">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14:AJ14 G15:G30">
+    <cfRule type="expression" dxfId="114" priority="115">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:C15">
+    <cfRule type="expression" dxfId="113" priority="114">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:F15 H15:AJ15">
+    <cfRule type="expression" dxfId="112" priority="113">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:C16">
+    <cfRule type="expression" dxfId="111" priority="112">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:F16 H16:AJ16">
+    <cfRule type="expression" dxfId="110" priority="111">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:C17">
+    <cfRule type="expression" dxfId="109" priority="110">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:F17 H17:AJ17">
+    <cfRule type="expression" dxfId="108" priority="109">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B18:C18">
+    <cfRule type="expression" dxfId="107" priority="108">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:F18 H18:AJ18">
+    <cfRule type="expression" dxfId="106" priority="107">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19:C19">
+    <cfRule type="expression" dxfId="105" priority="106">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:F19 H19:AJ19">
+    <cfRule type="expression" dxfId="104" priority="105">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:C20">
+    <cfRule type="expression" dxfId="103" priority="104">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D20:F20 H20:AJ20">
+    <cfRule type="expression" dxfId="102" priority="103">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="expression" dxfId="101" priority="102">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:F21 H21:L21 N21:AJ21">
+    <cfRule type="expression" dxfId="100" priority="101">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="expression" dxfId="99" priority="100">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D22:F22 H22:AJ22">
+    <cfRule type="expression" dxfId="98" priority="99">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="expression" dxfId="97" priority="98">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D23:F23 H23:L23 N23:AJ23">
+    <cfRule type="expression" dxfId="96" priority="97">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:C24">
+    <cfRule type="expression" dxfId="95" priority="96">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:F24 H24:L24 N24:AJ24">
+    <cfRule type="expression" dxfId="94" priority="95">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C25">
+    <cfRule type="expression" dxfId="93" priority="94">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D25:F25 H25:AJ25">
+    <cfRule type="expression" dxfId="92" priority="93">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:C26">
+    <cfRule type="expression" dxfId="91" priority="92">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D26:F26 H26:L26 N26:AJ26 X27:X28 S27:S28">
+    <cfRule type="expression" dxfId="90" priority="91">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="expression" dxfId="89" priority="90">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:F27 H27:AJ27">
+    <cfRule type="expression" dxfId="88" priority="89">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="expression" dxfId="87" priority="88">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28:F28 H28:AJ28">
+    <cfRule type="expression" dxfId="86" priority="87">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="expression" dxfId="85" priority="86">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:F29 H29:L29 N29:AJ29">
+    <cfRule type="expression" dxfId="84" priority="85">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C30">
+    <cfRule type="expression" dxfId="83" priority="84">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:F30 H30:L30 N30:AJ30">
+    <cfRule type="expression" dxfId="82" priority="83">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31:C31">
+    <cfRule type="expression" dxfId="81" priority="82">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:AJ31">
+    <cfRule type="expression" dxfId="80" priority="81">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B32:C32">
+    <cfRule type="expression" dxfId="79" priority="80">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D32:F32 H32:AJ32">
+    <cfRule type="expression" dxfId="78" priority="79">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B33:C33">
+    <cfRule type="expression" dxfId="77" priority="78">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:AJ33">
+    <cfRule type="expression" dxfId="76" priority="77">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B34:C34">
+    <cfRule type="expression" dxfId="75" priority="76">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G34:AJ34">
+    <cfRule type="expression" dxfId="74" priority="75">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B35:C35">
+    <cfRule type="expression" dxfId="73" priority="74">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D35:AJ35">
+    <cfRule type="expression" dxfId="72" priority="73">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B36:C36">
+    <cfRule type="expression" dxfId="71" priority="72">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AF36:AJ36">
+    <cfRule type="expression" dxfId="70" priority="71">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B37:C37">
+    <cfRule type="expression" dxfId="69" priority="70">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37:AJ37">
+    <cfRule type="expression" dxfId="68" priority="69">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ5:AJ9">
+    <cfRule type="expression" dxfId="67" priority="68">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G32">
+    <cfRule type="expression" dxfId="66" priority="67">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D34:F34">
+    <cfRule type="expression" dxfId="65" priority="66">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:AE36">
+    <cfRule type="expression" dxfId="64" priority="65">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D37:F37">
+    <cfRule type="expression" dxfId="63" priority="64">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M21">
+    <cfRule type="expression" dxfId="62" priority="63">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M23">
+    <cfRule type="expression" dxfId="61" priority="62">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M24">
+    <cfRule type="expression" dxfId="60" priority="61">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M26">
+    <cfRule type="expression" dxfId="59" priority="60">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M29">
+    <cfRule type="expression" dxfId="58" priority="59">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M30">
+    <cfRule type="expression" dxfId="57" priority="58">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:AJ37">
+    <cfRule type="expression" dxfId="56" priority="57">
+      <formula>IF(COLUMN()=ROW()-1,TRUE,FALSE)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G37">
+    <cfRule type="expression" dxfId="55" priority="56">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AJ9">
+    <cfRule type="expression" dxfId="54" priority="55">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="expression" dxfId="53" priority="54">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P18">
+    <cfRule type="expression" dxfId="52" priority="53">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P19">
+    <cfRule type="expression" dxfId="51" priority="52">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q21">
+    <cfRule type="expression" dxfId="50" priority="51">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U23">
+    <cfRule type="expression" dxfId="49" priority="50">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T24">
+    <cfRule type="expression" dxfId="48" priority="49">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V24">
+    <cfRule type="expression" dxfId="47" priority="48">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="expression" dxfId="46" priority="47">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W26">
+    <cfRule type="expression" dxfId="45" priority="46">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X26:X28">
+    <cfRule type="expression" dxfId="44" priority="45">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X28">
+    <cfRule type="expression" dxfId="43" priority="44">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB30">
+    <cfRule type="expression" dxfId="42" priority="43">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB30">
+    <cfRule type="expression" dxfId="41" priority="42">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB30">
+    <cfRule type="expression" dxfId="40" priority="41">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:S28">
+    <cfRule type="expression" dxfId="39" priority="40">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S26:S28">
+    <cfRule type="expression" dxfId="38" priority="39">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32">
+    <cfRule type="expression" dxfId="37" priority="38">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32">
+    <cfRule type="expression" dxfId="36" priority="37">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32">
+    <cfRule type="expression" dxfId="35" priority="36">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S32">
+    <cfRule type="expression" dxfId="34" priority="35">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W23">
+    <cfRule type="expression" dxfId="33" priority="34">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V22">
+    <cfRule type="expression" dxfId="32" priority="33">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W21">
+    <cfRule type="expression" dxfId="31" priority="32">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y20">
+    <cfRule type="expression" dxfId="30" priority="31">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z20">
+    <cfRule type="expression" dxfId="29" priority="30">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA20">
+    <cfRule type="expression" dxfId="28" priority="29">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y25:AA25">
+    <cfRule type="expression" dxfId="27" priority="28">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y24">
+    <cfRule type="expression" dxfId="26" priority="27">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18">
+    <cfRule type="expression" dxfId="25" priority="26">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T18">
+    <cfRule type="expression" dxfId="24" priority="25">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="expression" dxfId="23" priority="24">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q17">
+    <cfRule type="expression" dxfId="22" priority="23">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17">
+    <cfRule type="expression" dxfId="21" priority="22">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R17">
+    <cfRule type="expression" dxfId="20" priority="21">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
+    <cfRule type="expression" dxfId="19" priority="20">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15">
+    <cfRule type="expression" dxfId="18" priority="19">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="expression" dxfId="17" priority="18">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T14">
+    <cfRule type="expression" dxfId="15" priority="16">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V14">
+    <cfRule type="expression" dxfId="14" priority="15">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V14">
+    <cfRule type="expression" dxfId="13" priority="14">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V14">
+    <cfRule type="expression" dxfId="12" priority="13">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W14">
+    <cfRule type="expression" dxfId="11" priority="12">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W14">
+    <cfRule type="expression" dxfId="10" priority="11">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W14">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="expression" dxfId="8" priority="9">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="expression" dxfId="7" priority="8">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y14">
+    <cfRule type="expression" dxfId="6" priority="7">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14">
+    <cfRule type="expression" dxfId="5" priority="6">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14">
+    <cfRule type="expression" dxfId="4" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AB14">
+    <cfRule type="expression" dxfId="3" priority="4">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC14">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-1" xr:uid="{84D8086D-6C8D-4F4C-AE13-49D5DEB9309F}"/>
+    <hyperlink ref="B6" r:id="rId2" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-1.1" xr:uid="{1208B790-AB8F-4B15-9069-45A75938B6C3}"/>
+    <hyperlink ref="B7" r:id="rId3" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-1.2" xr:uid="{233F72BD-9276-4F8B-8F70-D1BE0625FBE1}"/>
+    <hyperlink ref="B8" r:id="rId4" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-2" xr:uid="{787330BC-21D2-4880-84EC-766B17513EB5}"/>
+    <hyperlink ref="B9" r:id="rId5" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-3" xr:uid="{EEA6862A-ECE0-4957-93CB-2FF176F6E998}"/>
+    <hyperlink ref="B10" r:id="rId6" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-4" xr:uid="{16863D02-B46D-48C5-8031-282DC81F6B79}"/>
+    <hyperlink ref="B11" r:id="rId7" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-5" xr:uid="{A50C97BE-19C5-4A8B-B1CC-589C644E737E}"/>
+    <hyperlink ref="B12" r:id="rId8" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-6" xr:uid="{B4E99C1C-7350-41C1-8732-B6BE4C4B4B46}"/>
+    <hyperlink ref="B13" r:id="rId9" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-7" xr:uid="{CC95303E-2A79-4DE0-BF5A-D75E9E685B94}"/>
+    <hyperlink ref="B14" r:id="rId10" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-8" xr:uid="{4EC6538E-CADB-4D8E-A5F3-832E3EF84130}"/>
+    <hyperlink ref="B15" r:id="rId11" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-9" xr:uid="{651620F1-B33D-4124-A367-58381A6FEAFB}"/>
+    <hyperlink ref="B16" r:id="rId12" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-10" xr:uid="{4138254D-6E72-4B30-BF2C-B2132B28605E}"/>
+    <hyperlink ref="B17" r:id="rId13" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-11" xr:uid="{2AC1485E-1CA4-492B-B4D9-38D3CD358E15}"/>
+    <hyperlink ref="B18" r:id="rId14" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-12" xr:uid="{19BBB4CA-70FF-4990-BF3A-B590C9CFE5F9}"/>
+    <hyperlink ref="B19" r:id="rId15" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-13" xr:uid="{F2F8353C-A3A5-4B84-B4CD-3F94055CB0E3}"/>
+    <hyperlink ref="B20" r:id="rId16" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-14" xr:uid="{C4101DD0-C430-4168-BAE2-47901BEDA053}"/>
+    <hyperlink ref="B21" r:id="rId17" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-15" xr:uid="{DF022E80-0445-4166-AEA8-6B8EA0D9A4DC}"/>
+    <hyperlink ref="B22" r:id="rId18" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-16" xr:uid="{B2B0A93D-6423-4F14-8B8D-423EA6C6E2F2}"/>
+    <hyperlink ref="B23" r:id="rId19" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-17" xr:uid="{E22FDA2A-7047-421A-A211-061E0077360E}"/>
+    <hyperlink ref="B24" r:id="rId20" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-18" xr:uid="{FF436073-FD6C-4913-81E8-F4D77CB5CEAD}"/>
+    <hyperlink ref="B25" r:id="rId21" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-19" xr:uid="{8E5E8A07-2521-4BF1-AF96-CA2B5701BF1D}"/>
+    <hyperlink ref="B26" r:id="rId22" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-20" xr:uid="{9F4E1D89-2F6F-43B7-B344-11BA66921449}"/>
+    <hyperlink ref="B27" r:id="rId23" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-21" xr:uid="{0A3B89F5-4794-4AC2-8F6A-DA01C16C38C5}"/>
+    <hyperlink ref="B28" r:id="rId24" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-22" xr:uid="{51B49C33-5130-4FB1-9E74-DA2ED17D42E7}"/>
+    <hyperlink ref="B29" r:id="rId25" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-23" xr:uid="{93B7D78C-6F68-4519-9203-4A6CBC0208DC}"/>
+    <hyperlink ref="B30" r:id="rId26" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-24" xr:uid="{B0418169-9753-4137-BB1D-C22908002DC8}"/>
+    <hyperlink ref="B31" r:id="rId27" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-25" xr:uid="{C06D9BEA-E754-4678-A1D8-18F6588037E7}"/>
+    <hyperlink ref="B32" r:id="rId28" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-26" xr:uid="{F3D2DD7B-3ACA-4DC3-969C-A5035E488424}"/>
+    <hyperlink ref="B33" r:id="rId29" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-27" xr:uid="{2F7C7324-9CFF-4B76-8C4C-3974BDD4BEA1}"/>
+    <hyperlink ref="B34" r:id="rId30" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-28" xr:uid="{3D40799A-6B21-4533-B75B-6109B5012E2F}"/>
+    <hyperlink ref="B35" r:id="rId31" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-29" xr:uid="{FF3A168F-E9B2-4313-B2BE-1A0BAD193074}"/>
+    <hyperlink ref="B36" r:id="rId32" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-30" xr:uid="{B80DBECA-2A42-4781-9E56-73476EAFE9F2}"/>
+    <hyperlink ref="B37" r:id="rId33" tooltip="cc://C:\Users\muchd\OneDrive\Documents\CaseComplete\SuperPlanner\SuperPlanner.ucd?REQ-31" xr:uid="{A0A36087-9878-4968-9D02-EF11359B2188}"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" r:id="rId34"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId35"/>
+</worksheet>
 </file>